--- a/LotR.xlsx
+++ b/LotR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Nom</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Mère</t>
   </si>
   <si>
-    <t>Amis</t>
-  </si>
-  <si>
     <t>Ennemy</t>
   </si>
   <si>
@@ -75,15 +72,9 @@
     <t>Humain</t>
   </si>
   <si>
-    <t>Arathorn II</t>
-  </si>
-  <si>
     <t>Gilraen</t>
   </si>
   <si>
-    <t>Arwen, Gandalf, Elrond, Legolas</t>
-  </si>
-  <si>
     <t>Eriador</t>
   </si>
   <si>
@@ -105,33 +96,18 @@
     <t>Eldarion</t>
   </si>
   <si>
-    <t>Aragorn,Elron</t>
-  </si>
-  <si>
     <t>Gandalf</t>
   </si>
   <si>
-    <t>Faramir,Aragorn,Frodon,Saroumane,Elrond,Galadriel</t>
-  </si>
-  <si>
     <t>Valinor</t>
   </si>
   <si>
     <t>Maiar</t>
   </si>
   <si>
-    <t>Aragorn,Gandalf,Isildur</t>
-  </si>
-  <si>
-    <t>Aulë, Melkor, Roi-Sorcier d’Angmar</t>
-  </si>
-  <si>
     <t>Legolas</t>
   </si>
   <si>
-    <t>Aragorn,Gimli,Thranduil</t>
-  </si>
-  <si>
     <t>Mirkwood</t>
   </si>
   <si>
@@ -165,12 +141,6 @@
     <t>Celebrian</t>
   </si>
   <si>
-    <t>Sauron, Morgoth</t>
-  </si>
-  <si>
-    <t>Gandalf, Radagast</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -195,9 +165,6 @@
     <t>Melian</t>
   </si>
   <si>
-    <t>Gandalf, Celeborn, Melian</t>
-  </si>
-  <si>
     <t>Celeborn</t>
   </si>
   <si>
@@ -207,9 +174,6 @@
     <t>Amis2</t>
   </si>
   <si>
-    <t>Aragorn,Arwen,Gandalf,Bilbon</t>
-  </si>
-  <si>
     <t>Hobbit</t>
   </si>
   <si>
@@ -217,13 +181,34 @@
   </si>
   <si>
     <t>Hobbitville</t>
+  </si>
+  <si>
+    <t>Isildur</t>
+  </si>
+  <si>
+    <t>Morgoth</t>
+  </si>
+  <si>
+    <t>Boromir</t>
+  </si>
+  <si>
+    <t>Gondor</t>
+  </si>
+  <si>
+    <t>Denethor </t>
+  </si>
+  <si>
+    <t>Denethor</t>
+  </si>
+  <si>
+    <t>Arathorn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,27 +251,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -302,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -372,12 +336,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -390,9 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -695,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,22 +687,20 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -738,470 +717,873 @@
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="O2" s="9">
+      <c r="M2" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8">
+        <v>61</v>
+      </c>
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="O3" s="9">
+      <c r="M3" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
+      <c r="P3" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="8">
+        <v>23</v>
+      </c>
+      <c r="L4" s="8">
         <v>1</v>
       </c>
-      <c r="O4" s="9">
+      <c r="M4" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="8">
+        <v>3</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="O5" s="9">
+      <c r="M5" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="8">
+        <v>4</v>
+      </c>
+      <c r="P5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="L6" s="8">
         <v>11</v>
       </c>
-      <c r="O6" s="9">
+      <c r="M6" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="8">
+        <v>21</v>
+      </c>
+      <c r="P6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="L7" s="8">
+        <v>11</v>
+      </c>
+      <c r="M7" s="9">
+        <v>12</v>
+      </c>
+      <c r="O7" s="8">
+        <v>7</v>
+      </c>
+      <c r="P7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>10</v>
+      </c>
+      <c r="P8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4</v>
+      </c>
+      <c r="O9" s="8">
+        <v>10</v>
+      </c>
+      <c r="P9" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
+        <v>2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>13</v>
+      </c>
+      <c r="P10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>6</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
       <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3</v>
+      </c>
+      <c r="M12" s="9">
+        <v>2</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8">
+        <v>4</v>
+      </c>
+      <c r="M13" s="9">
+        <v>13</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="8">
+        <v>4</v>
+      </c>
+      <c r="M14" s="9">
+        <v>12</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="L15" s="8">
+        <v>4</v>
+      </c>
+      <c r="M15" s="9">
+        <v>7</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="L16" s="8">
+        <v>4</v>
+      </c>
+      <c r="M16" s="9">
+        <v>10</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="L17" s="8">
+        <v>5</v>
+      </c>
+      <c r="M17" s="9">
+        <v>14</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="L18" s="8">
+        <v>5</v>
+      </c>
+      <c r="M18" s="9">
+        <v>15</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5</v>
+      </c>
+      <c r="M19" s="9">
+        <v>16</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L20" s="8">
+        <v>6</v>
+      </c>
+      <c r="M20" s="9">
+        <v>9</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="L21" s="8">
+        <v>6</v>
+      </c>
+      <c r="M21" s="9">
+        <v>8</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="8">
+        <v>7</v>
+      </c>
+      <c r="M22" s="9">
+        <v>17</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="8">
+        <v>10</v>
+      </c>
+      <c r="M23" s="9">
+        <v>18</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="8">
+        <v>10</v>
+      </c>
+      <c r="M24" s="9">
+        <v>19</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="13">
+        <v>12</v>
+      </c>
+      <c r="M25" s="12">
+        <v>20</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L26" s="13">
+        <v>12</v>
+      </c>
+      <c r="M26" s="12">
+        <v>2</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L27" s="13">
+        <v>12</v>
+      </c>
+      <c r="M27" s="12">
+        <v>4</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L28" s="13">
+        <v>11</v>
+      </c>
+      <c r="M28" s="12">
+        <v>4</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="13">
+        <v>13</v>
+      </c>
+      <c r="M29" s="12">
+        <v>2</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L32" s="8"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="8"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="8"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="8"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="8"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="8"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="8"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="8"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L44" s="8"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L45" s="8"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L46" s="8"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="8"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L48" s="8"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L49" s="8"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L50" s="8"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L52" s="8"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L53" s="8"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L54" s="8"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L55" s="8"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="8"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L57" s="8"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L58" s="8"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L59" s="8"/>
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L60" s="8"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="8"/>
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="8"/>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L63" s="8"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L64" s="8"/>
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65" s="8"/>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L66" s="8"/>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L67" s="8"/>
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L68" s="8"/>
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L69" s="8"/>
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L70" s="8"/>
+      <c r="M70" s="9"/>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L71" s="8"/>
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L72" s="8"/>
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L73" s="8"/>
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L74" s="8"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L75" s="8"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L76" s="8"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L77" s="8"/>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L78" s="8"/>
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L79" s="8"/>
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L80" s="8"/>
+      <c r="M80" s="9"/>
+    </row>
+    <row r="81" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L81" s="8"/>
+      <c r="M81" s="9"/>
+    </row>
+    <row r="82" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L82" s="8"/>
+      <c r="M82" s="9"/>
+    </row>
+    <row r="83" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="10"/>
+      <c r="M83" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/LotR.xlsx
+++ b/LotR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>Nom</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Sauron</t>
   </si>
   <si>
-    <t>Eärendil le Marin </t>
-  </si>
-  <si>
     <t>Elwing</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Aule</t>
   </si>
   <si>
-    <t>Melkor</t>
-  </si>
-  <si>
     <t>Roi-Sorcier d’Angmar</t>
   </si>
   <si>
@@ -226,6 +220,39 @@
   </si>
   <si>
     <t>Eärwen</t>
+  </si>
+  <si>
+    <t>Vala</t>
+  </si>
+  <si>
+    <t>Nazgûl</t>
+  </si>
+  <si>
+    <t>Númenor</t>
+  </si>
+  <si>
+    <t>Istari</t>
+  </si>
+  <si>
+    <t>Champs aux Iris</t>
+  </si>
+  <si>
+    <t>Andunië</t>
+  </si>
+  <si>
+    <t>Elendil</t>
+  </si>
+  <si>
+    <t>Doriath</t>
+  </si>
+  <si>
+    <t>Eärendil</t>
+  </si>
+  <si>
+    <t>Gondolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peredhel </t>
   </si>
 </sst>
 </file>
@@ -358,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -375,6 +402,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -677,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +722,7 @@
     <col min="7" max="7" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="9"/>
     <col min="10" max="10" width="11.42578125" style="8"/>
-    <col min="11" max="11" width="11.42578125" style="9"/>
+    <col min="11" max="11" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="8"/>
     <col min="14" max="14" width="11.42578125" style="9"/>
     <col min="16" max="16" width="11.42578125" style="8"/>
@@ -709,61 +737,61 @@
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="J1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="T1" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -771,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>1</v>
@@ -784,16 +812,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2" s="8">
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="8">
         <v>1</v>
@@ -831,29 +859,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="8">
         <v>2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" s="8">
         <v>1</v>
@@ -891,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>1</v>
@@ -904,16 +932,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="8">
         <v>3</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="8">
         <v>1</v>
@@ -951,20 +979,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3"/>
       <c r="J5" s="8">
         <v>4</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="8">
         <v>1</v>
@@ -999,17 +1027,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="J6" s="8">
         <v>5</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M6" s="8">
         <v>11</v>
@@ -1041,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>1</v>
@@ -1054,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M7" s="8">
         <v>11</v>
@@ -1086,13 +1114,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="J8" s="8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="M8" s="8">
         <v>2</v>
@@ -1124,13 +1158,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="M9" s="8">
         <v>2</v>
@@ -1162,15 +1202,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="5"/>
+      <c r="J10" s="8">
+        <v>9</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="M10" s="8">
         <v>2</v>
       </c>
@@ -1201,20 +1247,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="1"/>
+      <c r="J11" s="8">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="M11" s="8">
         <v>2</v>
       </c>
       <c r="N11" s="9">
         <v>6</v>
+      </c>
+      <c r="P11" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>22</v>
       </c>
       <c r="S11" s="8">
         <v>12</v>
@@ -1234,19 +1292,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="J12" s="8">
+        <v>11</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="M12" s="8">
         <v>3</v>
       </c>
       <c r="N12" s="9">
         <v>2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>5</v>
       </c>
       <c r="S12" s="8">
         <v>13</v>
@@ -1266,13 +1336,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M13" s="8">
         <v>4</v>
@@ -1280,9 +1350,18 @@
       <c r="N13" s="9">
         <v>13</v>
       </c>
+      <c r="P13" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>22</v>
+      </c>
       <c r="S13" s="8">
         <v>14</v>
       </c>
+      <c r="T13" s="9">
+        <v>3</v>
+      </c>
       <c r="V13" s="8">
         <v>35</v>
       </c>
@@ -1295,13 +1374,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5"/>
       <c r="M14" s="8">
@@ -1310,11 +1389,20 @@
       <c r="N14" s="9">
         <v>12</v>
       </c>
+      <c r="P14" s="8">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>22</v>
+      </c>
       <c r="S14" s="8">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="T14" s="9">
+        <v>3</v>
       </c>
       <c r="V14" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W14" s="9">
         <v>23</v>
@@ -1325,7 +1413,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="M15" s="8">
         <v>4</v>
@@ -1333,11 +1427,20 @@
       <c r="N15" s="9">
         <v>7</v>
       </c>
+      <c r="P15" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>5</v>
+      </c>
       <c r="S15" s="8">
         <v>16</v>
       </c>
+      <c r="T15" s="9">
+        <v>7</v>
+      </c>
       <c r="V15" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W15" s="9">
         <v>13</v>
@@ -1347,8 +1450,14 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>37</v>
+      <c r="B16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="M16" s="8">
         <v>4</v>
@@ -1356,19 +1465,37 @@
       <c r="N16" s="9">
         <v>10</v>
       </c>
+      <c r="P16" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>7</v>
+      </c>
       <c r="S16" s="8">
         <v>23</v>
       </c>
       <c r="T16" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="V16" s="8">
+        <v>18</v>
+      </c>
+      <c r="W16" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="M17" s="8">
         <v>5</v>
@@ -1376,27 +1503,63 @@
       <c r="N17" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" s="8">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>22</v>
+      </c>
+      <c r="S17" s="8">
+        <v>19</v>
+      </c>
+      <c r="T17" s="9">
+        <v>3</v>
+      </c>
+      <c r="V17" s="8">
+        <v>15</v>
+      </c>
+      <c r="W17" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="M18" s="8">
         <v>5</v>
       </c>
       <c r="N18" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="S18" s="8">
+        <v>26</v>
+      </c>
+      <c r="T18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="M19" s="8">
         <v>5</v>
@@ -1404,13 +1567,25 @@
       <c r="N19" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S19" s="8">
+        <v>21</v>
+      </c>
+      <c r="T19" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="M20" s="8">
         <v>6</v>
@@ -1418,13 +1593,25 @@
       <c r="N20" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S20" s="8">
+        <v>15</v>
+      </c>
+      <c r="T20" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="M21" s="8">
         <v>6</v>
@@ -1432,13 +1619,25 @@
       <c r="N21" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S21" s="8">
+        <v>22</v>
+      </c>
+      <c r="T21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="M22" s="8">
         <v>7</v>
@@ -1446,13 +1645,25 @@
       <c r="N22" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S22" s="8">
+        <v>24</v>
+      </c>
+      <c r="T22" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="M23" s="8">
         <v>10</v>
@@ -1460,19 +1671,25 @@
       <c r="N23" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S23" s="8">
+        <v>27</v>
+      </c>
+      <c r="T23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M24" s="8">
         <v>10</v>
@@ -1480,13 +1697,25 @@
       <c r="N24" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S24" s="8">
+        <v>28</v>
+      </c>
+      <c r="T24" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="M25" s="8">
         <v>12</v>
@@ -1494,13 +1723,25 @@
       <c r="N25" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S25" s="8">
+        <v>29</v>
+      </c>
+      <c r="T25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="M26" s="8">
         <v>12</v>
@@ -1508,13 +1749,25 @@
       <c r="N26" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S26" s="8">
+        <v>31</v>
+      </c>
+      <c r="T26" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="M27" s="8">
         <v>12</v>
@@ -1522,13 +1775,25 @@
       <c r="N27" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S27" s="8">
+        <v>32</v>
+      </c>
+      <c r="T27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="M28" s="8">
         <v>11</v>
@@ -1537,12 +1802,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="M29" s="8">
         <v>13</v>
@@ -1551,68 +1822,144 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="8">
+        <v>26</v>
+      </c>
+      <c r="N30" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="8">
+        <v>26</v>
+      </c>
+      <c r="N31" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="8">
+        <v>21</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8">
+        <v>24</v>
+      </c>
+      <c r="N33" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="8">
+        <v>24</v>
+      </c>
+      <c r="N34" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>25</v>
+      </c>
+      <c r="N35" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="8">
+        <v>30</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/LotR.xlsx
+++ b/LotR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>Nom</t>
   </si>
@@ -253,6 +253,21 @@
   </si>
   <si>
     <t xml:space="preserve">Peredhel </t>
+  </si>
+  <si>
+    <t>Andúril</t>
+  </si>
+  <si>
+    <t>Glamdring</t>
+  </si>
+  <si>
+    <t>Grond</t>
+  </si>
+  <si>
+    <t>Hadhafang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narsil </t>
   </si>
 </sst>
 </file>
@@ -707,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -988,6 +1003,15 @@
         <v>20</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J5" s="8">
         <v>4</v>
       </c>
@@ -1016,6 +1040,12 @@
         <v>30</v>
       </c>
       <c r="W5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1033,6 +1063,15 @@
         <v>20</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J6" s="8">
         <v>5</v>
       </c>
@@ -1062,6 +1101,12 @@
       </c>
       <c r="W6" s="9">
         <v>3</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1078,6 +1123,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J7" s="8">
         <v>6</v>
       </c>
@@ -1107,6 +1161,12 @@
       </c>
       <c r="W7" s="9">
         <v>3</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1122,6 +1182,15 @@
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J8" s="8">
         <v>7</v>
       </c>
@@ -1151,6 +1220,12 @@
       </c>
       <c r="W8" s="9">
         <v>31</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1166,6 +1241,15 @@
       <c r="D9" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="F9" s="8">
+        <v>8</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J9" s="8">
         <v>8</v>
       </c>
@@ -1195,6 +1279,12 @@
       </c>
       <c r="W9" s="9">
         <v>6</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">

--- a/LotR.xlsx
+++ b/LotR.xlsx
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
     <col min="2" max="2" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="10"/>
     <col min="4" max="4" width="11.42578125" style="9"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="8"/>
     <col min="7" max="7" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="9"/>

--- a/LotR.xlsx
+++ b/LotR.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AA$1</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Nom</t>
   </si>
@@ -268,6 +271,18 @@
   </si>
   <si>
     <t xml:space="preserve">Narsil </t>
+  </si>
+  <si>
+    <t>Année Naissance</t>
+  </si>
+  <si>
+    <t>Vilya</t>
+  </si>
+  <si>
+    <t>Narya</t>
+  </si>
+  <si>
+    <t>Nenya</t>
   </si>
 </sst>
 </file>
@@ -400,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -411,6 +426,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -720,1339 +736,1383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="11"/>
     <col min="4" max="4" width="11.42578125" style="9"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="8"/>
-    <col min="7" max="7" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="9"/>
-    <col min="10" max="10" width="11.42578125" style="8"/>
-    <col min="11" max="11" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="8"/>
-    <col min="14" max="14" width="11.42578125" style="9"/>
-    <col min="16" max="16" width="11.42578125" style="8"/>
-    <col min="17" max="17" width="11.42578125" style="9"/>
-    <col min="19" max="19" width="11.42578125" style="8"/>
-    <col min="20" max="20" width="11.42578125" style="9"/>
-    <col min="22" max="22" width="11.42578125" style="8"/>
-    <col min="23" max="23" width="11.42578125" style="9"/>
-    <col min="25" max="25" width="11.42578125" style="8"/>
-    <col min="26" max="26" width="11.42578125" style="9"/>
+    <col min="5" max="5" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="8"/>
+    <col min="8" max="8" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="9"/>
+    <col min="11" max="11" width="11.42578125" style="8"/>
+    <col min="12" max="12" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="8"/>
+    <col min="15" max="15" width="11.42578125" style="9"/>
+    <col min="17" max="17" width="11.42578125" style="8"/>
+    <col min="18" max="18" width="11.42578125" style="9"/>
+    <col min="20" max="20" width="11.42578125" style="8"/>
+    <col min="21" max="21" width="11.42578125" style="9"/>
+    <col min="23" max="23" width="11.42578125" style="8"/>
+    <col min="24" max="24" width="11.42578125" style="9"/>
+    <col min="26" max="26" width="11.42578125" style="8"/>
+    <col min="27" max="27" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9">
         <v>2</v>
       </c>
-      <c r="P2" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9">
         <v>5</v>
       </c>
-      <c r="S2" s="8">
-        <v>1</v>
-      </c>
-      <c r="T2" s="9">
-        <v>1</v>
-      </c>
-      <c r="V2" s="8">
+      <c r="T2" s="8">
+        <v>1</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1</v>
+      </c>
+      <c r="W2" s="8">
         <v>27</v>
       </c>
-      <c r="W2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="9">
+      <c r="X2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="8">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9">
         <v>3</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>2</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="R3" s="9">
         <v>5</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>2</v>
       </c>
-      <c r="T3" s="9">
+      <c r="U3" s="9">
         <v>2</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <v>28</v>
       </c>
-      <c r="W3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="8">
+      <c r="X3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8">
         <v>2</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AA3" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8">
+      <c r="F4" s="4"/>
+      <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>3</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
         <v>4</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>3</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="R4" s="9">
         <v>5</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>3</v>
       </c>
-      <c r="T4" s="9">
-        <v>1</v>
-      </c>
-      <c r="V4" s="8">
+      <c r="U4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="8">
         <v>29</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <v>2</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Z4" s="8">
         <v>3</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="AA4" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8">
+      <c r="F5" s="3"/>
+      <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>4</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
         <v>11</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>4</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="R5" s="9">
         <v>5</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>5</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <v>3</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <v>30</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <v>2</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Z5" s="8">
         <v>4</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="AA5" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8">
+      <c r="F6" s="3"/>
+      <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>5</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>11</v>
       </c>
-      <c r="N6" s="9">
+      <c r="O6" s="9">
         <v>20</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>21</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="R6" s="9">
         <v>5</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>6</v>
       </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
         <v>4</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <v>2</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X6" s="9">
         <v>3</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Z6" s="8">
         <v>5</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="AA6" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8">
+      <c r="F7" s="3"/>
+      <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>6</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>11</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>12</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>7</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="9">
         <v>5</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <v>7</v>
       </c>
-      <c r="T7" s="9">
+      <c r="U7" s="9">
         <v>3</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <v>32</v>
       </c>
-      <c r="W7" s="9">
+      <c r="X7" s="9">
         <v>3</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Z7" s="8">
         <v>6</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="AA7" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>7</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>2</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>3</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>10</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="R8" s="9">
         <v>5</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>8</v>
       </c>
-      <c r="T8" s="9">
+      <c r="U8" s="9">
         <v>4</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>3</v>
       </c>
-      <c r="W8" s="9">
+      <c r="X8" s="9">
         <v>31</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Z8" s="8">
         <v>7</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="AA8" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>8</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>2</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>4</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>10</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>22</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>10</v>
       </c>
-      <c r="T9" s="9">
+      <c r="U9" s="9">
         <v>3</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <v>8</v>
       </c>
-      <c r="W9" s="9">
+      <c r="X9" s="9">
         <v>6</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Z9" s="8">
         <v>8</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="AA9" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="J10" s="8">
+      <c r="F10" s="5"/>
+      <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="H10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="8">
+        <v>9</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>2</v>
       </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>13</v>
+      </c>
+      <c r="R10" s="9">
         <v>5</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>11</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U10" s="9">
         <v>5</v>
       </c>
-      <c r="V10" s="8">
+      <c r="W10" s="8">
         <v>33</v>
       </c>
-      <c r="W10" s="9">
+      <c r="X10" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z10" s="8">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="J11" s="8">
+      <c r="F11" s="1"/>
+      <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="H11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="8">
+        <v>10</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>2</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>6</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>14</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="R11" s="9">
         <v>22</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>12</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
         <v>5</v>
       </c>
-      <c r="V11" s="8">
+      <c r="W11" s="8">
         <v>10</v>
       </c>
-      <c r="W11" s="9">
+      <c r="X11" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z11" s="8">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="8">
+      <c r="G12" s="8">
         <v>11</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="H12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="8">
+        <v>11</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>3</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>2</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8">
         <v>18</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="R12" s="9">
         <v>5</v>
       </c>
-      <c r="S12" s="8">
-        <v>13</v>
-      </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
+        <v>13</v>
+      </c>
+      <c r="U12" s="9">
         <v>6</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <v>34</v>
       </c>
-      <c r="W12" s="9">
+      <c r="X12" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <v>4</v>
       </c>
-      <c r="N13" s="9">
-        <v>13</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="O13" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="8">
         <v>18</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="R13" s="9">
         <v>22</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>14</v>
       </c>
-      <c r="T13" s="9">
+      <c r="U13" s="9">
         <v>3</v>
       </c>
-      <c r="V13" s="8">
+      <c r="W13" s="8">
         <v>35</v>
       </c>
-      <c r="W13" s="9">
+      <c r="X13" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="M14" s="8">
+      <c r="F14" s="5"/>
+      <c r="N14" s="8">
         <v>4</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>12</v>
       </c>
-      <c r="P14" s="8">
+      <c r="Q14" s="8">
         <v>19</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="R14" s="9">
         <v>22</v>
       </c>
-      <c r="S14" s="8">
+      <c r="T14" s="8">
         <v>34</v>
       </c>
-      <c r="T14" s="9">
+      <c r="U14" s="9">
         <v>3</v>
       </c>
-      <c r="V14" s="8">
+      <c r="W14" s="8">
         <v>24</v>
       </c>
-      <c r="W14" s="9">
+      <c r="X14" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>4</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <v>7</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <v>20</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="R15" s="9">
         <v>5</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <v>16</v>
       </c>
-      <c r="T15" s="9">
+      <c r="U15" s="9">
         <v>7</v>
       </c>
-      <c r="V15" s="8">
+      <c r="W15" s="8">
         <v>24</v>
       </c>
-      <c r="W15" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X15" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>4</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O16" s="9">
         <v>10</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>20</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="R16" s="9">
         <v>7</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>23</v>
       </c>
-      <c r="T16" s="9">
+      <c r="U16" s="9">
         <v>6</v>
       </c>
-      <c r="V16" s="8">
+      <c r="W16" s="8">
         <v>18</v>
       </c>
-      <c r="W16" s="9">
+      <c r="X16" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="8">
+      <c r="N17" s="8">
         <v>5</v>
       </c>
-      <c r="N17" s="9">
+      <c r="O17" s="9">
         <v>14</v>
       </c>
-      <c r="P17" s="8">
+      <c r="Q17" s="8">
         <v>28</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="R17" s="9">
         <v>22</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>19</v>
       </c>
-      <c r="T17" s="9">
+      <c r="U17" s="9">
         <v>3</v>
       </c>
-      <c r="V17" s="8">
+      <c r="W17" s="8">
         <v>15</v>
       </c>
-      <c r="W17" s="9">
+      <c r="X17" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>5</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>22</v>
       </c>
-      <c r="S18" s="8">
+      <c r="T18" s="8">
         <v>26</v>
       </c>
-      <c r="T18" s="9">
+      <c r="U18" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <v>5</v>
       </c>
-      <c r="N19" s="9">
+      <c r="O19" s="9">
         <v>16</v>
       </c>
-      <c r="S19" s="8">
+      <c r="T19" s="8">
         <v>21</v>
       </c>
-      <c r="T19" s="9">
+      <c r="U19" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N20" s="8">
         <v>6</v>
       </c>
-      <c r="N20" s="9">
+      <c r="O20" s="9">
         <v>9</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>15</v>
       </c>
-      <c r="T20" s="9">
+      <c r="U20" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <v>6</v>
       </c>
-      <c r="N21" s="9">
+      <c r="O21" s="9">
         <v>8</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>22</v>
       </c>
-      <c r="T21" s="9">
+      <c r="U21" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="8">
+      <c r="N22" s="8">
         <v>7</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="9">
         <v>17</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <v>24</v>
       </c>
-      <c r="T22" s="9">
+      <c r="U22" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="8">
+      <c r="N23" s="8">
         <v>10</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="9">
         <v>18</v>
       </c>
-      <c r="S23" s="8">
+      <c r="T23" s="8">
         <v>27</v>
       </c>
-      <c r="T23" s="9">
+      <c r="U23" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="8">
+      <c r="N24" s="8">
         <v>10</v>
       </c>
-      <c r="N24" s="9">
+      <c r="O24" s="9">
         <v>19</v>
       </c>
-      <c r="S24" s="8">
+      <c r="T24" s="8">
         <v>28</v>
       </c>
-      <c r="T24" s="9">
+      <c r="U24" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="8">
+      <c r="N25" s="8">
         <v>12</v>
       </c>
-      <c r="N25" s="9">
+      <c r="O25" s="9">
         <v>20</v>
       </c>
-      <c r="S25" s="8">
+      <c r="T25" s="8">
         <v>29</v>
       </c>
-      <c r="T25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="8">
+      <c r="N26" s="8">
         <v>12</v>
       </c>
-      <c r="N26" s="9">
+      <c r="O26" s="9">
         <v>2</v>
       </c>
-      <c r="S26" s="8">
+      <c r="T26" s="8">
         <v>31</v>
       </c>
-      <c r="T26" s="9">
+      <c r="U26" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="8">
+      <c r="N27" s="8">
         <v>12</v>
       </c>
-      <c r="N27" s="9">
+      <c r="O27" s="9">
         <v>4</v>
       </c>
-      <c r="S27" s="8">
+      <c r="T27" s="8">
         <v>32</v>
       </c>
-      <c r="T27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="8">
+      <c r="N28" s="8">
         <v>11</v>
       </c>
-      <c r="N28" s="9">
+      <c r="O28" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="8">
-        <v>13</v>
-      </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
+        <v>13</v>
+      </c>
+      <c r="O29" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="8">
+      <c r="N30" s="8">
         <v>26</v>
       </c>
-      <c r="N30" s="9">
+      <c r="O30" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="8">
+      <c r="N31" s="8">
         <v>26</v>
       </c>
-      <c r="N31" s="9">
+      <c r="O31" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="8">
+      <c r="N32" s="8">
         <v>21</v>
       </c>
-      <c r="N32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M33" s="8">
+      <c r="N33" s="8">
         <v>24</v>
       </c>
-      <c r="N33" s="9">
+      <c r="O33" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M34" s="8">
+      <c r="N34" s="8">
         <v>24</v>
       </c>
-      <c r="N34" s="9">
+      <c r="O34" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M35" s="8">
+      <c r="N35" s="8">
         <v>25</v>
       </c>
-      <c r="N35" s="9">
+      <c r="O35" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M36" s="8">
+      <c r="N36" s="8">
         <v>30</v>
       </c>
-      <c r="N36" s="9">
+      <c r="O36" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA1"/>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" display="http://fr.dbpedia.org/resource/Samsagace_Gamegie"/>
   </hyperlinks>

--- a/LotR.xlsx
+++ b/LotR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Nom</t>
   </si>
@@ -283,13 +283,64 @@
   </si>
   <si>
     <t>Nenya</t>
+  </si>
+  <si>
+    <t>241 Troisième Âge</t>
+  </si>
+  <si>
+    <t>532 Premier Âge</t>
+  </si>
+  <si>
+    <t>2931 Troisième Âge</t>
+  </si>
+  <si>
+    <t>1000 Troisième Âge</t>
+  </si>
+  <si>
+    <t>2879 Troisième Âge</t>
+  </si>
+  <si>
+    <t>2983 Troisième Âge</t>
+  </si>
+  <si>
+    <t>3119 Second Âge</t>
+  </si>
+  <si>
+    <t>3209 Second Âge</t>
+  </si>
+  <si>
+    <t>2978 Troisième Âge</t>
+  </si>
+  <si>
+    <t>2930 Troisième Âge</t>
+  </si>
+  <si>
+    <t>2746 Troisième Âge</t>
+  </si>
+  <si>
+    <t>2440 Troisième Âge</t>
+  </si>
+  <si>
+    <t>503 Premier Âge</t>
+  </si>
+  <si>
+    <t>2907 Troisième Âge</t>
+  </si>
+  <si>
+    <t>2873 Troisième Âge</t>
+  </si>
+  <si>
+    <t>120 Quatrième  Âge</t>
+  </si>
+  <si>
+    <t>2783  Troisième Âge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +382,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF050505"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -415,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -426,7 +483,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -434,6 +490,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -738,20 +796,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="11"/>
-    <col min="4" max="4" width="11.42578125" style="9"/>
-    <col min="5" max="5" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="10"/>
+    <col min="5" max="5" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="8"/>
-    <col min="8" max="8" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="9"/>
     <col min="11" max="11" width="11.42578125" style="8"/>
     <col min="12" max="12" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -771,22 +828,22 @@
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -833,20 +890,23 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>57</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -893,20 +953,23 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -953,20 +1016,23 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>1</v>
+      <c r="D4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -1013,20 +1079,20 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>79</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -1073,20 +1139,20 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -1133,20 +1199,20 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="8">
         <v>6</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1193,19 +1259,22 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1252,19 +1321,19 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -1311,20 +1380,23 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -1371,20 +1443,20 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1431,19 +1503,19 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="8">
         <v>11</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>87</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -1484,13 +1556,13 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="N13" s="8">
@@ -1522,14 +1594,17 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="5"/>
       <c r="N14" s="8">
@@ -1561,13 +1636,13 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>68</v>
       </c>
       <c r="N15" s="8">
@@ -1599,14 +1674,17 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="N16" s="8">
         <v>4</v>
@@ -1637,13 +1715,13 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>69</v>
       </c>
       <c r="N17" s="8">
@@ -1675,13 +1753,13 @@
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
       <c r="N18" s="8">
@@ -1701,13 +1779,13 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="8">
@@ -1727,13 +1805,13 @@
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="N20" s="8">
@@ -1753,13 +1831,13 @@
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="N21" s="8">
@@ -1779,14 +1857,17 @@
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="N22" s="8">
         <v>7</v>
@@ -1805,13 +1886,13 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>68</v>
       </c>
       <c r="N23" s="8">
@@ -1831,14 +1912,17 @@
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="N24" s="8">
         <v>10</v>
@@ -1857,14 +1941,17 @@
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="N25" s="8">
         <v>12</v>
@@ -1883,14 +1970,17 @@
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="N26" s="8">
         <v>12</v>
@@ -1909,14 +1999,17 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="N27" s="8">
         <v>12</v>
@@ -1935,14 +2028,17 @@
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>1</v>
+      <c r="D28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="N28" s="8">
         <v>11</v>
@@ -1955,14 +2051,17 @@
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>78</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="N29" s="8">
         <v>13</v>
@@ -1975,14 +2074,17 @@
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="N30" s="8">
         <v>26</v>
@@ -1995,14 +2097,17 @@
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="N31" s="8">
         <v>26</v>
@@ -2015,14 +2120,17 @@
       <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="N32" s="8">
         <v>21</v>
@@ -2035,13 +2143,13 @@
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N33" s="8">
@@ -2055,14 +2163,17 @@
       <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="N34" s="8">
         <v>24</v>
@@ -2075,13 +2186,13 @@
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N35" s="8">
@@ -2095,13 +2206,13 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N36" s="8">

--- a/LotR.xlsx
+++ b/LotR.xlsx
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="W6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" s="9">
         <v>3</v>
